--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3910.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3910.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.64716317054371</v>
+        <v>2.794156074523926</v>
       </c>
       <c r="B1">
-        <v>2.176983830823676</v>
+        <v>2.578701972961426</v>
       </c>
       <c r="C1">
-        <v>3.456250533274957</v>
+        <v>2.864722967147827</v>
       </c>
       <c r="D1">
-        <v>7.601060539094244</v>
+        <v>3.365700244903564</v>
       </c>
       <c r="E1">
-        <v>0.7566237771216774</v>
+        <v>3.112615346908569</v>
       </c>
     </row>
   </sheetData>
